--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ifnk-Ifnar1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ifnk-Ifnar1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -88,16 +94,10 @@
     <t>Ifnar1</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.1379033333333333</v>
+        <v>0.388702</v>
       </c>
       <c r="H2">
-        <v>0.41371</v>
+        <v>0.777404</v>
       </c>
       <c r="I2">
-        <v>0.1151434304008603</v>
+        <v>0.3146783286756539</v>
       </c>
       <c r="J2">
-        <v>0.1151434304008603</v>
+        <v>0.2343691871525104</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.568057</v>
+        <v>20.79761</v>
       </c>
       <c r="N2">
-        <v>53.136114</v>
+        <v>41.59522</v>
       </c>
       <c r="O2">
-        <v>0.1769362593421452</v>
+        <v>0.1221346813081061</v>
       </c>
       <c r="P2">
-        <v>0.1285250503302229</v>
+        <v>0.08652867365760288</v>
       </c>
       <c r="Q2">
-        <v>3.663823620490001</v>
+        <v>8.084072602219999</v>
       </c>
       <c r="R2">
-        <v>21.98294172294</v>
+        <v>32.33629040888</v>
       </c>
       <c r="S2">
-        <v>0.02037304786295088</v>
+        <v>0.03843313738736846</v>
       </c>
       <c r="T2">
-        <v>0.01479881518746509</v>
+        <v>0.02027965491051723</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.1379033333333333</v>
+        <v>0.388702</v>
       </c>
       <c r="H3">
-        <v>0.41371</v>
+        <v>0.777404</v>
       </c>
       <c r="I3">
-        <v>0.1151434304008603</v>
+        <v>0.3146783286756539</v>
       </c>
       <c r="J3">
-        <v>0.1151434304008603</v>
+        <v>0.2343691871525104</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>13.56641266666667</v>
+        <v>13.56641266666666</v>
       </c>
       <c r="N3">
-        <v>40.699238</v>
+        <v>40.69923799999999</v>
       </c>
       <c r="O3">
-        <v>0.09034873381715107</v>
+        <v>0.0796692258166966</v>
       </c>
       <c r="P3">
-        <v>0.09844287093240803</v>
+        <v>0.08466480242237233</v>
       </c>
       <c r="Q3">
-        <v>1.870853528108889</v>
+        <v>5.273291736358666</v>
       </c>
       <c r="R3">
-        <v>16.83768175298</v>
+        <v>31.63975041815199</v>
       </c>
       <c r="S3">
-        <v>0.01040306314408099</v>
+        <v>0.02507017882688134</v>
       </c>
       <c r="T3">
-        <v>0.0113350498576666</v>
+        <v>0.01984282092415929</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.1379033333333333</v>
+        <v>0.388702</v>
       </c>
       <c r="H4">
-        <v>0.41371</v>
+        <v>0.777404</v>
       </c>
       <c r="I4">
-        <v>0.1151434304008603</v>
+        <v>0.3146783286756539</v>
       </c>
       <c r="J4">
-        <v>0.1151434304008603</v>
+        <v>0.2343691871525104</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>39.790493</v>
+        <v>49.80229833333333</v>
       </c>
       <c r="N4">
-        <v>119.371479</v>
+        <v>149.406895</v>
       </c>
       <c r="O4">
-        <v>0.2649941991919023</v>
+        <v>0.2924657129041698</v>
       </c>
       <c r="P4">
-        <v>0.2887344254506105</v>
+        <v>0.3108044736787241</v>
       </c>
       <c r="Q4">
-        <v>5.487241619676667</v>
+        <v>19.35825296676333</v>
       </c>
       <c r="R4">
-        <v>49.38517457709</v>
+        <v>116.14951780058</v>
       </c>
       <c r="S4">
-        <v>0.03051234113128452</v>
+        <v>0.09203262173161778</v>
       </c>
       <c r="T4">
-        <v>0.03324587222120477</v>
+        <v>0.07284299185944638</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.1379033333333333</v>
+        <v>0.388702</v>
       </c>
       <c r="H5">
-        <v>0.41371</v>
+        <v>0.777404</v>
       </c>
       <c r="I5">
-        <v>0.1151434304008603</v>
+        <v>0.3146783286756539</v>
       </c>
       <c r="J5">
-        <v>0.1151434304008603</v>
+        <v>0.2343691871525104</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.470196</v>
+        <v>9.34483</v>
       </c>
       <c r="N5">
-        <v>20.940392</v>
+        <v>18.68966</v>
       </c>
       <c r="O5">
-        <v>0.06972874662302521</v>
+        <v>0.05487783615177078</v>
       </c>
       <c r="P5">
-        <v>0.05065039072549785</v>
+        <v>0.03887926283143963</v>
       </c>
       <c r="Q5">
-        <v>1.443874929053333</v>
+        <v>3.63235411066</v>
       </c>
       <c r="R5">
-        <v>8.66324957432</v>
+        <v>14.52941644264</v>
       </c>
       <c r="S5">
-        <v>0.008028807083727529</v>
+        <v>0.01726886576157561</v>
       </c>
       <c r="T5">
-        <v>0.005832059739277743</v>
+        <v>0.009112101226893316</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.1379033333333333</v>
+        <v>0.388702</v>
       </c>
       <c r="H6">
-        <v>0.41371</v>
+        <v>0.777404</v>
       </c>
       <c r="I6">
-        <v>0.1151434304008603</v>
+        <v>0.3146783286756539</v>
       </c>
       <c r="J6">
-        <v>0.1151434304008603</v>
+        <v>0.2343691871525104</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.009171</v>
+        <v>37.76134866666666</v>
       </c>
       <c r="N6">
-        <v>54.02751300000001</v>
+        <v>113.284046</v>
       </c>
       <c r="O6">
-        <v>0.1199363337180826</v>
+        <v>0.2217548211149075</v>
       </c>
       <c r="P6">
-        <v>0.1306811564643544</v>
+        <v>0.2356597283761661</v>
       </c>
       <c r="Q6">
-        <v>2.483524711470001</v>
+        <v>14.67791174943067</v>
       </c>
       <c r="R6">
-        <v>22.35172240323</v>
+        <v>88.06747049658399</v>
       </c>
       <c r="S6">
-        <v>0.01380988089400241</v>
+        <v>0.06978143648420769</v>
       </c>
       <c r="T6">
-        <v>0.01504707664405733</v>
+        <v>0.05523137898410344</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.1379033333333333</v>
+        <v>0.388702</v>
       </c>
       <c r="H7">
-        <v>0.41371</v>
+        <v>0.777404</v>
       </c>
       <c r="I7">
-        <v>0.1151434304008603</v>
+        <v>0.3146783286756539</v>
       </c>
       <c r="J7">
-        <v>0.1151434304008603</v>
+        <v>0.2343691871525104</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>41.75176099999999</v>
+        <v>39.011729</v>
       </c>
       <c r="N7">
-        <v>125.255283</v>
+        <v>117.035187</v>
       </c>
       <c r="O7">
-        <v>0.2780557273076937</v>
+        <v>0.2290977227043493</v>
       </c>
       <c r="P7">
-        <v>0.3029661060969063</v>
+        <v>0.2434630590336949</v>
       </c>
       <c r="Q7">
-        <v>5.757707014436667</v>
+        <v>15.163937085758</v>
       </c>
       <c r="R7">
-        <v>51.81936312993</v>
+        <v>90.983622514548</v>
       </c>
       <c r="S7">
-        <v>0.03201629028481404</v>
+        <v>0.07209208848400304</v>
       </c>
       <c r="T7">
-        <v>0.0348845567511888</v>
+        <v>0.05706023924739073</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>1.059762333333333</v>
+        <v>0.2410223333333333</v>
       </c>
       <c r="H8">
-        <v>3.179287</v>
+        <v>0.723067</v>
       </c>
       <c r="I8">
-        <v>0.8848565695991397</v>
+        <v>0.1951224975092479</v>
       </c>
       <c r="J8">
-        <v>0.8848565695991397</v>
+        <v>0.217987848077453</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.568057</v>
+        <v>20.79761</v>
       </c>
       <c r="N8">
-        <v>53.136114</v>
+        <v>41.59522</v>
       </c>
       <c r="O8">
-        <v>0.1769362593421452</v>
+        <v>0.1221346813081061</v>
       </c>
       <c r="P8">
-        <v>0.1285250503302229</v>
+        <v>0.08652867365760288</v>
       </c>
       <c r="Q8">
-        <v>28.155826078453</v>
+        <v>5.012688489956666</v>
       </c>
       <c r="R8">
-        <v>168.934956470718</v>
+        <v>30.07613093974</v>
       </c>
       <c r="S8">
-        <v>0.1565632114791944</v>
+        <v>0.02383122404933372</v>
       </c>
       <c r="T8">
-        <v>0.1137262351427578</v>
+        <v>0.01886219936761704</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>1.059762333333333</v>
+        <v>0.2410223333333333</v>
       </c>
       <c r="H9">
-        <v>3.179287</v>
+        <v>0.723067</v>
       </c>
       <c r="I9">
-        <v>0.8848565695991397</v>
+        <v>0.1951224975092479</v>
       </c>
       <c r="J9">
-        <v>0.8848565695991397</v>
+        <v>0.217987848077453</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>13.56641266666667</v>
+        <v>13.56641266666666</v>
       </c>
       <c r="N9">
-        <v>40.699238</v>
+        <v>40.69923799999999</v>
       </c>
       <c r="O9">
-        <v>0.09034873381715107</v>
+        <v>0.0796692258166966</v>
       </c>
       <c r="P9">
-        <v>0.09844287093240803</v>
+        <v>0.08466480242237233</v>
       </c>
       <c r="Q9">
-        <v>14.37717314258956</v>
+        <v>3.269808435882888</v>
       </c>
       <c r="R9">
-        <v>129.394558283306</v>
+        <v>29.428275922946</v>
       </c>
       <c r="S9">
-        <v>0.07994567067307008</v>
+        <v>0.01554525831598209</v>
       </c>
       <c r="T9">
-        <v>0.08710782107474144</v>
+        <v>0.01845589808795567</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>1.059762333333333</v>
+        <v>0.2410223333333333</v>
       </c>
       <c r="H10">
-        <v>3.179287</v>
+        <v>0.723067</v>
       </c>
       <c r="I10">
-        <v>0.8848565695991397</v>
+        <v>0.1951224975092479</v>
       </c>
       <c r="J10">
-        <v>0.8848565695991397</v>
+        <v>0.217987848077453</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>39.790493</v>
+        <v>49.80229833333333</v>
       </c>
       <c r="N10">
-        <v>119.371479</v>
+        <v>149.406895</v>
       </c>
       <c r="O10">
-        <v>0.2649941991919023</v>
+        <v>0.2924657129041698</v>
       </c>
       <c r="P10">
-        <v>0.2887344254506105</v>
+        <v>0.3108044736787241</v>
       </c>
       <c r="Q10">
-        <v>42.16846570616367</v>
+        <v>12.00346614966278</v>
       </c>
       <c r="R10">
-        <v>379.516191355473</v>
+        <v>108.031195346965</v>
       </c>
       <c r="S10">
-        <v>0.2344818580606177</v>
+        <v>0.05706664033768429</v>
       </c>
       <c r="T10">
-        <v>0.2554885532294058</v>
+        <v>0.06775159839007044</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>1.059762333333333</v>
+        <v>0.2410223333333333</v>
       </c>
       <c r="H11">
-        <v>3.179287</v>
+        <v>0.723067</v>
       </c>
       <c r="I11">
-        <v>0.8848565695991397</v>
+        <v>0.1951224975092479</v>
       </c>
       <c r="J11">
-        <v>0.8848565695991397</v>
+        <v>0.217987848077453</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.470196</v>
+        <v>9.34483</v>
       </c>
       <c r="N11">
-        <v>20.940392</v>
+        <v>18.68966</v>
       </c>
       <c r="O11">
-        <v>0.06972874662302521</v>
+        <v>0.05487783615177078</v>
       </c>
       <c r="P11">
-        <v>0.05065039072549785</v>
+        <v>0.03887926283143963</v>
       </c>
       <c r="Q11">
-        <v>11.09591934341733</v>
+        <v>2.252312731203333</v>
       </c>
       <c r="R11">
-        <v>66.575516060504</v>
+        <v>13.51387638722</v>
       </c>
       <c r="S11">
-        <v>0.06169993953929769</v>
+        <v>0.01070790044783681</v>
       </c>
       <c r="T11">
-        <v>0.04481833098622011</v>
+        <v>0.008475206839463225</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>1.059762333333333</v>
+        <v>0.2410223333333333</v>
       </c>
       <c r="H12">
-        <v>3.179287</v>
+        <v>0.723067</v>
       </c>
       <c r="I12">
-        <v>0.8848565695991397</v>
+        <v>0.1951224975092479</v>
       </c>
       <c r="J12">
-        <v>0.8848565695991397</v>
+        <v>0.217987848077453</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.009171</v>
+        <v>37.76134866666666</v>
       </c>
       <c r="N12">
-        <v>54.02751300000001</v>
+        <v>113.284046</v>
       </c>
       <c r="O12">
-        <v>0.1199363337180826</v>
+        <v>0.2217548211149075</v>
       </c>
       <c r="P12">
-        <v>0.1306811564643544</v>
+        <v>0.2356597283761661</v>
       </c>
       <c r="Q12">
-        <v>19.085441080359</v>
+        <v>9.101328365453554</v>
       </c>
       <c r="R12">
-        <v>171.768969723231</v>
+        <v>81.91195528908199</v>
       </c>
       <c r="S12">
-        <v>0.1061264528240802</v>
+        <v>0.04326935453065725</v>
       </c>
       <c r="T12">
-        <v>0.1156340798202971</v>
+        <v>0.05137095706723753</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>1.059762333333333</v>
+        <v>0.2410223333333333</v>
       </c>
       <c r="H13">
-        <v>3.179287</v>
+        <v>0.723067</v>
       </c>
       <c r="I13">
-        <v>0.8848565695991397</v>
+        <v>0.1951224975092479</v>
       </c>
       <c r="J13">
-        <v>0.8848565695991397</v>
+        <v>0.217987848077453</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,772 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>41.75176099999999</v>
+        <v>39.011729</v>
       </c>
       <c r="N13">
-        <v>125.255283</v>
+        <v>117.035187</v>
       </c>
       <c r="O13">
-        <v>0.2780557273076937</v>
+        <v>0.2290977227043493</v>
       </c>
       <c r="P13">
-        <v>0.3029661060969063</v>
+        <v>0.2434630590336949</v>
       </c>
       <c r="Q13">
-        <v>44.24694365813567</v>
+        <v>9.402697950947667</v>
       </c>
       <c r="R13">
-        <v>398.222492923221</v>
+        <v>84.62428155852901</v>
       </c>
       <c r="S13">
-        <v>0.2460394370228797</v>
+        <v>0.04470211982775376</v>
       </c>
       <c r="T13">
-        <v>0.2680815493457175</v>
+        <v>0.05307198832510905</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.4689626666666666</v>
+      </c>
+      <c r="H14">
+        <v>1.406888</v>
+      </c>
+      <c r="I14">
+        <v>0.3796543062756159</v>
+      </c>
+      <c r="J14">
+        <v>0.424143941855999</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>20.79761</v>
+      </c>
+      <c r="N14">
+        <v>41.59522</v>
+      </c>
+      <c r="O14">
+        <v>0.1221346813081061</v>
+      </c>
+      <c r="P14">
+        <v>0.08652867365760288</v>
+      </c>
+      <c r="Q14">
+        <v>9.753302645893331</v>
+      </c>
+      <c r="R14">
+        <v>58.51981587536</v>
+      </c>
+      <c r="S14">
+        <v>0.04636895770422245</v>
+      </c>
+      <c r="T14">
+        <v>0.03670061272870703</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.4689626666666666</v>
+      </c>
+      <c r="H15">
+        <v>1.406888</v>
+      </c>
+      <c r="I15">
+        <v>0.3796543062756159</v>
+      </c>
+      <c r="J15">
+        <v>0.424143941855999</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>13.56641266666666</v>
+      </c>
+      <c r="N15">
+        <v>40.69923799999999</v>
+      </c>
+      <c r="O15">
+        <v>0.0796692258166966</v>
+      </c>
+      <c r="P15">
+        <v>0.08466480242237233</v>
+      </c>
+      <c r="Q15">
+        <v>6.362141061260443</v>
+      </c>
+      <c r="R15">
+        <v>57.25926955134399</v>
+      </c>
+      <c r="S15">
+        <v>0.03024676465895333</v>
+      </c>
+      <c r="T15">
+        <v>0.03591006303588434</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.4689626666666666</v>
+      </c>
+      <c r="H16">
+        <v>1.406888</v>
+      </c>
+      <c r="I16">
+        <v>0.3796543062756159</v>
+      </c>
+      <c r="J16">
+        <v>0.424143941855999</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>49.80229833333333</v>
+      </c>
+      <c r="N16">
+        <v>149.406895</v>
+      </c>
+      <c r="O16">
+        <v>0.2924657129041698</v>
+      </c>
+      <c r="P16">
+        <v>0.3108044736787241</v>
+      </c>
+      <c r="Q16">
+        <v>23.35541863252889</v>
+      </c>
+      <c r="R16">
+        <v>210.19876769276</v>
+      </c>
+      <c r="S16">
+        <v>0.111035867342036</v>
+      </c>
+      <c r="T16">
+        <v>0.1318258346125731</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.4689626666666666</v>
+      </c>
+      <c r="H17">
+        <v>1.406888</v>
+      </c>
+      <c r="I17">
+        <v>0.3796543062756159</v>
+      </c>
+      <c r="J17">
+        <v>0.424143941855999</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>9.34483</v>
+      </c>
+      <c r="N17">
+        <v>18.68966</v>
+      </c>
+      <c r="O17">
+        <v>0.05487783615177078</v>
+      </c>
+      <c r="P17">
+        <v>0.03887926283143963</v>
+      </c>
+      <c r="Q17">
+        <v>4.382376396346666</v>
+      </c>
+      <c r="R17">
+        <v>26.29425837808</v>
+      </c>
+      <c r="S17">
+        <v>0.02083460681410745</v>
+      </c>
+      <c r="T17">
+        <v>0.01649040379378224</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.4689626666666666</v>
+      </c>
+      <c r="H18">
+        <v>1.406888</v>
+      </c>
+      <c r="I18">
+        <v>0.3796543062756159</v>
+      </c>
+      <c r="J18">
+        <v>0.424143941855999</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>37.76134866666666</v>
+      </c>
+      <c r="N18">
+        <v>113.284046</v>
+      </c>
+      <c r="O18">
+        <v>0.2217548211149075</v>
+      </c>
+      <c r="P18">
+        <v>0.2356597283761661</v>
+      </c>
+      <c r="Q18">
+        <v>17.70866276764977</v>
+      </c>
+      <c r="R18">
+        <v>159.377964908848</v>
+      </c>
+      <c r="S18">
+        <v>0.0841901727736535</v>
+      </c>
+      <c r="T18">
+        <v>0.09995364613018112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.4689626666666666</v>
+      </c>
+      <c r="H19">
+        <v>1.406888</v>
+      </c>
+      <c r="I19">
+        <v>0.3796543062756159</v>
+      </c>
+      <c r="J19">
+        <v>0.424143941855999</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>39.011729</v>
+      </c>
+      <c r="N19">
+        <v>117.035187</v>
+      </c>
+      <c r="O19">
+        <v>0.2290977227043493</v>
+      </c>
+      <c r="P19">
+        <v>0.2434630590336949</v>
+      </c>
+      <c r="Q19">
+        <v>18.29504446311733</v>
+      </c>
+      <c r="R19">
+        <v>164.655400168056</v>
+      </c>
+      <c r="S19">
+        <v>0.08697793698264314</v>
+      </c>
+      <c r="T19">
+        <v>0.1032633815548712</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.136549</v>
+      </c>
+      <c r="H20">
+        <v>0.409647</v>
+      </c>
+      <c r="I20">
+        <v>0.1105448675394823</v>
+      </c>
+      <c r="J20">
+        <v>0.1234990229140375</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>20.79761</v>
+      </c>
+      <c r="N20">
+        <v>41.59522</v>
+      </c>
+      <c r="O20">
+        <v>0.1221346813081061</v>
+      </c>
+      <c r="P20">
+        <v>0.08652867365760288</v>
+      </c>
+      <c r="Q20">
+        <v>2.83989284789</v>
+      </c>
+      <c r="R20">
+        <v>17.03935708734</v>
+      </c>
+      <c r="S20">
+        <v>0.01350136216718148</v>
+      </c>
+      <c r="T20">
+        <v>0.01068620665076157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.136549</v>
+      </c>
+      <c r="H21">
+        <v>0.409647</v>
+      </c>
+      <c r="I21">
+        <v>0.1105448675394823</v>
+      </c>
+      <c r="J21">
+        <v>0.1234990229140375</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>13.56641266666666</v>
+      </c>
+      <c r="N21">
+        <v>40.69923799999999</v>
+      </c>
+      <c r="O21">
+        <v>0.0796692258166966</v>
+      </c>
+      <c r="P21">
+        <v>0.08466480242237233</v>
+      </c>
+      <c r="Q21">
+        <v>1.852480083220666</v>
+      </c>
+      <c r="R21">
+        <v>16.672320748986</v>
+      </c>
+      <c r="S21">
+        <v>0.008807024014879832</v>
+      </c>
+      <c r="T21">
+        <v>0.01045602037437302</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.136549</v>
+      </c>
+      <c r="H22">
+        <v>0.409647</v>
+      </c>
+      <c r="I22">
+        <v>0.1105448675394823</v>
+      </c>
+      <c r="J22">
+        <v>0.1234990229140375</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>49.80229833333333</v>
+      </c>
+      <c r="N22">
+        <v>149.406895</v>
+      </c>
+      <c r="O22">
+        <v>0.2924657129041698</v>
+      </c>
+      <c r="P22">
+        <v>0.3108044736787241</v>
+      </c>
+      <c r="Q22">
+        <v>6.800454035118333</v>
+      </c>
+      <c r="R22">
+        <v>61.20408631606499</v>
+      </c>
+      <c r="S22">
+        <v>0.03233058349283172</v>
+      </c>
+      <c r="T22">
+        <v>0.03838404881663412</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.136549</v>
+      </c>
+      <c r="H23">
+        <v>0.409647</v>
+      </c>
+      <c r="I23">
+        <v>0.1105448675394823</v>
+      </c>
+      <c r="J23">
+        <v>0.1234990229140375</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>9.34483</v>
+      </c>
+      <c r="N23">
+        <v>18.68966</v>
+      </c>
+      <c r="O23">
+        <v>0.05487783615177078</v>
+      </c>
+      <c r="P23">
+        <v>0.03887926283143963</v>
+      </c>
+      <c r="Q23">
+        <v>1.27602719167</v>
+      </c>
+      <c r="R23">
+        <v>7.656163150019999</v>
+      </c>
+      <c r="S23">
+        <v>0.006066463128250915</v>
+      </c>
+      <c r="T23">
+        <v>0.00480155097130085</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.136549</v>
+      </c>
+      <c r="H24">
+        <v>0.409647</v>
+      </c>
+      <c r="I24">
+        <v>0.1105448675394823</v>
+      </c>
+      <c r="J24">
+        <v>0.1234990229140375</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>37.76134866666666</v>
+      </c>
+      <c r="N24">
+        <v>113.284046</v>
+      </c>
+      <c r="O24">
+        <v>0.2217548211149075</v>
+      </c>
+      <c r="P24">
+        <v>0.2356597283761661</v>
+      </c>
+      <c r="Q24">
+        <v>5.156274399084666</v>
+      </c>
+      <c r="R24">
+        <v>46.406469591762</v>
+      </c>
+      <c r="S24">
+        <v>0.02451385732638905</v>
+      </c>
+      <c r="T24">
+        <v>0.029103746194644</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.136549</v>
+      </c>
+      <c r="H25">
+        <v>0.409647</v>
+      </c>
+      <c r="I25">
+        <v>0.1105448675394823</v>
+      </c>
+      <c r="J25">
+        <v>0.1234990229140375</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>39.011729</v>
+      </c>
+      <c r="N25">
+        <v>117.035187</v>
+      </c>
+      <c r="O25">
+        <v>0.2290977227043493</v>
+      </c>
+      <c r="P25">
+        <v>0.2434630590336949</v>
+      </c>
+      <c r="Q25">
+        <v>5.327012583221</v>
+      </c>
+      <c r="R25">
+        <v>47.943113248989</v>
+      </c>
+      <c r="S25">
+        <v>0.02532557740994935</v>
+      </c>
+      <c r="T25">
+        <v>0.03006744990632396</v>
       </c>
     </row>
   </sheetData>
